--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/62_Niğde_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/62_Niğde_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{902B4585-9112-4D9F-80F5-E0AF53CA8CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F59228-C375-4C63-AE87-092859D8A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{561AABCC-88A8-4B23-A4BE-6EEF2142F9B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{1CCE04FD-1C54-4753-83C5-456A75F35679}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -1034,14 +1034,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{13E60161-DD59-4E0D-A5F8-79BFA5C267EF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8C462BEE-B1B8-4406-90A2-66C068CE15F7}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8849CB28-548A-4ED7-BEDB-73D97DFA09FB}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{1EDA2668-6E23-40EE-8996-716A805F7B7D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0180510E-E091-4A38-BFF3-B9FB7B16E4B1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{39EBB7A0-231B-4A2F-9E68-1BA671C1B55C}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3A70CE63-E49C-4C46-9A4F-207EC1D67DE6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8E1C6CF3-CF5F-4793-BAD1-AFA74F9E20F5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{30F94295-644D-43CC-B157-93B3E6E5F1E7}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1BE23411-F9E1-47F1-8AA4-C062F4A7B305}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8C911BFA-9C57-4232-BD21-24DA8E58E56C}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CF857A37-36E2-4A87-B83C-5E4BAEAB2168}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{02DA63CF-E104-40AA-A5AB-E28EF2BF77F0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B7C8CDAB-EE9F-435B-ABD0-0F8A400E6712}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{29940810-4962-47D9-A085-9EFBF9FF3AA2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F2B8DF53-3FB7-4A10-ACB9-67C1D5D35849}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D646C-F9F2-4ED2-9FF2-2637BD168BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53AE11-2992-43FC-98A1-ABA828B93487}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2683,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1FEAA3-750F-4E42-99E1-19C3B97F3237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E5E4D-9FC0-4B0B-88EF-26528B9F355F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3916,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C6FE5-5E25-4EC1-833E-E0AE725E1052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B4B63E-600F-489E-A903-B9FC81F6A9E6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5149,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F90161-C848-47C1-9240-18C51059A90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226EC033-F4C0-4F97-A1ED-54220EA50207}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6374,7 +6374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53C87BC-16AD-45EF-8A09-BC962E518681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525507-9EE8-409B-9A54-6EB916D0ACA2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7643,7 +7643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58439457-E28A-491A-BADA-3A7E422B0B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE37AC44-D52D-4381-AEAB-99021306C443}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8914,7 +8914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C9CB74-0AF1-4A96-A147-FC0D4CD1EE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460E1D6-638D-4BFF-A72E-0FA046D9F1B8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10183,7 +10183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9183966-3C71-48F0-8754-29C1FD4B405A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C65165D-4E42-4AEF-B0CB-99EAB0813742}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11452,7 +11452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F9FBA7-3E3C-4BC8-A3D9-EE81774C6EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672C9E2E-640F-46DD-A286-00150CF909A8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12717,7 +12717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61409233-CEE0-46DC-A39A-E38B637F8F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1678B1F6-C2A3-4285-B313-3011A031BE6D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13970,7 +13970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3766B5-74DC-4654-995E-F58247503EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0FECF8-70CC-49C9-AE90-897F992AC360}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15225,7 +15225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB33B573-94C6-4DB0-8C2D-49F3731660A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E61652-8652-4AAA-8B00-9069B36C10DB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
